--- a/TestData/ReadData.xlsx
+++ b/TestData/ReadData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseReadData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Browser</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>password2</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -409,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,12 +470,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -479,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,4 +569,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>